--- a/02_generic_data_compilation/sample data/Katy Species.xlsx
+++ b/02_generic_data_compilation/sample data/Katy Species.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Species</t>
   </si>
@@ -19,15 +19,45 @@
     <t>Mating System</t>
   </si>
   <si>
+    <t>Social Dominance Hierarchy</t>
+  </si>
+  <si>
+    <t>Territoriality (males)</t>
+  </si>
+  <si>
+    <t>Territoriality (females)</t>
+  </si>
+  <si>
+    <t>Group Size During Reproduction</t>
+  </si>
+  <si>
     <t>Group Size Outside of Reproduction</t>
   </si>
   <si>
+    <t>Group Property</t>
+  </si>
+  <si>
     <t>Age at Maturity</t>
   </si>
   <si>
     <t>Avg. life expectancy</t>
   </si>
   <si>
+    <t># offspring/reproductive bout</t>
+  </si>
+  <si>
+    <t># reproductive bouts/year</t>
+  </si>
+  <si>
+    <t>Migratory behavior</t>
+  </si>
+  <si>
+    <t>Activity Pattern</t>
+  </si>
+  <si>
+    <t>Habitat Complexity</t>
+  </si>
+  <si>
     <t>Microtus ochrogaster</t>
   </si>
   <si>
@@ -38,6 +68,63 @@
   </si>
   <si>
     <t>Rattus norvegicus</t>
+  </si>
+  <si>
+    <t>Cavia porcellus</t>
+  </si>
+  <si>
+    <t>Fukomys damarensis</t>
+  </si>
+  <si>
+    <t>Pan troglodytes</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>Gorilla gorilla</t>
+  </si>
+  <si>
+    <t>Hylobates lar</t>
+  </si>
+  <si>
+    <t>Macaca mulatta</t>
+  </si>
+  <si>
+    <t>Macaca fascicularis</t>
+  </si>
+  <si>
+    <t>Passer domesticus</t>
+  </si>
+  <si>
+    <t>Zonotrichia albicollis</t>
+  </si>
+  <si>
+    <t>Taeniopygia guttata</t>
+  </si>
+  <si>
+    <t>Pipra filicauda</t>
+  </si>
+  <si>
+    <t>Columba livia</t>
+  </si>
+  <si>
+    <t>Coturnix japonica</t>
+  </si>
+  <si>
+    <t>Anolis carolinensis</t>
+  </si>
+  <si>
+    <t>Engystomops putulosus</t>
+  </si>
+  <si>
+    <t>Dendrobate auratus</t>
+  </si>
+  <si>
+    <t>Astatotilap burtoni</t>
+  </si>
+  <si>
+    <t>Gasterosteus aculeatus</t>
   </si>
 </sst>
 </file>
@@ -310,25 +397,150 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
